--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zawar.LAPTOP-L2O17FMQ\Downloads\Inspired Consulting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258B778C-BB20-4A04-9D8D-C94C9BD846FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82EA24E-AAFB-4606-B7AA-AA8915580321}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,10 +558,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,18 +918,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -948,7 +950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -967,8 +969,9 @@
       <c r="F2">
         <v>72000</v>
       </c>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -988,7 +991,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>83000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
